--- a/data/excel/StackList.xlsx
+++ b/data/excel/StackList.xlsx
@@ -1,97 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="FRONT_STACK_LIST" sheetId="1" r:id="rId1"/>
-    <sheet name="BACK_STACK_LIST" sheetId="2" r:id="rId2"/>
-    <sheet name="IOS_STACK_LIST" sheetId="3" r:id="rId3"/>
-    <sheet name="CROSS_STACK_LIST" sheetId="4" r:id="rId4"/>
-    <sheet name="ANDROID_STACK_LIST" sheetId="5" r:id="rId5"/>
-    <sheet name="GAME_STACK_LIST" sheetId="6" r:id="rId6"/>
-    <sheet name="SECURITY_STACK_LIST" sheetId="7" r:id="rId7"/>
-    <sheet name="CLOUD_STACK_LIST" sheetId="8" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FRONT_STACK_LIST" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BACK_STACK_LIST" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IOS_STACK_LIST" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CROSS_STACK_LIST" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ANDROID_STACK_LIST" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GAME_STACK_LIST" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SECURITY_STACK_LIST" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CLOUD_STACK_LIST" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="13">
-  <si>
-    <t>stack</t>
-  </si>
-  <si>
-    <t>count</t>
-  </si>
-  <si>
-    <t>react</t>
-  </si>
-  <si>
-    <t>javascript</t>
-  </si>
-  <si>
-    <t>typescript</t>
-  </si>
-  <si>
-    <t>vue</t>
-  </si>
-  <si>
-    <t>angular</t>
-  </si>
-  <si>
-    <t>java</t>
-  </si>
-  <si>
-    <t>python</t>
-  </si>
-  <si>
-    <t>postgresql</t>
-  </si>
-  <si>
-    <t>docker</t>
-  </si>
-  <si>
-    <t>kubernetes</t>
-  </si>
-  <si>
-    <t>jenkins</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -114,21 +74,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -416,281 +452,389 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>stack</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>count</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>angular</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>javascript</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>react</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>typescript</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>vue</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>stack</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>count</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>docker</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>java</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>kubernetes</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>postgresql</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>stack</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>count</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>stack</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>count</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2">
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>stack</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>count</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>java</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>stack</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>count</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>stack</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>count</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>stack</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>count</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>docker</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>jenkins</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>kubernetes</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/excel/StackList.xlsx
+++ b/data/excel/StackList.xlsx
@@ -484,7 +484,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -494,7 +494,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -514,7 +514,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -565,7 +565,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -575,7 +575,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -605,7 +605,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -708,7 +708,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/excel/StackList.xlsx
+++ b/data/excel/StackList.xlsx
@@ -2,8 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FRONT_STACK_LIST" sheetId="1" state="visible" r:id="rId1"/>
@@ -23,18 +24,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -51,27 +44,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -84,17 +62,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -457,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,65 +441,15 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>stack</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>count</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>angular</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>javascript</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>react</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>typescript</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>vue</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -538,7 +463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -547,64 +472,94 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>stack</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>count</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>django</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>docker</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>dynamodb</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>flask</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>kubernetes</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>java</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>mysql</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>kubernetes</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>postgresql</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>python</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>redis</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>2</v>
       </c>
     </row>
@@ -628,12 +583,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>stack</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>count</t>
         </is>
@@ -659,12 +614,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>stack</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>count</t>
         </is>
@@ -681,7 +636,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -690,25 +645,15 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>stack</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>count</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>java</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -731,12 +676,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>stack</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>count</t>
         </is>
@@ -753,7 +698,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -762,15 +707,25 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>stack</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>count</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>prometheus</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -784,7 +739,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -793,21 +748,21 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>stack</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>count</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>docker</t>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>aws</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -815,23 +770,93 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>jenkins</t>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>datadog</t>
         </is>
       </c>
       <c r="B3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>docker</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>gcp</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>grafana</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>kubernetes</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>kubernetes</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>loki</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>prometheus</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>sentry</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>spinnaker</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/excel/StackList.xlsx
+++ b/data/excel/StackList.xlsx
@@ -432,37 +432,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>stack</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>count</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -486,7 +455,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>django</t>
+          <t>angular</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -496,7 +465,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>docker</t>
+          <t>babel</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -506,7 +475,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>dynamodb</t>
+          <t>emotion</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -516,7 +485,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>flask</t>
+          <t>jotai</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -526,17 +495,17 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>kubernetes</t>
+          <t>react</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>mysql</t>
+          <t>typescript</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -546,21 +515,152 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>python</t>
+          <t>vue</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
+          <t>webpack</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>stack</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>count</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>apache</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>dynamodb</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>elasticsearch</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>go</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>grpc</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>kafka</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>kubernetes</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>mysql</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
           <t>redis</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>2</v>
+      <c r="B11" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -739,7 +839,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -766,7 +866,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -782,7 +882,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>docker</t>
+          <t>gcp</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -792,7 +892,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>gcp</t>
+          <t>grafana</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -802,7 +902,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>grafana</t>
+          <t>kubernetes</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -812,17 +912,17 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>kubernetes</t>
+          <t>loki</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>loki</t>
+          <t>prometheus</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -832,30 +932,10 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>prometheus</t>
+          <t>spinnaker</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>sentry</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>spinnaker</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/excel/StackList.xlsx
+++ b/data/excel/StackList.xlsx
@@ -459,7 +459,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -469,7 +469,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -479,7 +479,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -499,7 +499,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -519,7 +519,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -529,7 +529,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -539,7 +539,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -580,7 +580,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -610,7 +610,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -660,7 +660,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -680,7 +680,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -845,7 +845,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -886,7 +886,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -906,7 +906,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -916,7 +916,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -926,7 +926,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/excel/StackList.xlsx
+++ b/data/excel/StackList.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,7 +485,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>jest</t>
+          <t>javascript</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -495,37 +495,37 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>jotai</t>
+          <t>jest</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>react</t>
+          <t>jotai</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>typescript</t>
+          <t>react</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>vue</t>
+          <t>typescript</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -535,10 +535,20 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
+          <t>vue</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
           <t>webpack</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B11" t="n">
         <v>2</v>
       </c>
     </row>

--- a/data/excel/StackList.xlsx
+++ b/data/excel/StackList.xlsx
@@ -1,35 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FRONT_STACK_LIST" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BACK_STACK_LIST" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IOS_STACK_LIST" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CROSS_STACK_LIST" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ANDROID_STACK_LIST" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GAME_STACK_LIST" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SECURITY_STACK_LIST" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CLOUD_STACK_LIST" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="FRONT_STACK_LIST" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="BACK_STACK_LIST" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="IOS_STACK_LIST" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="CROSS_STACK_LIST" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="ANDROID_STACK_LIST" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GAME_STACK_LIST" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="SECURITY_STACK_LIST" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="CLOUD_STACK_LIST" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="4">
     <font>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <sz val="8"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -44,12 +57,34 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -60,16 +95,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -218,6 +256,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -252,6 +291,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -275,7 +315,6 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
@@ -286,31 +325,31 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
@@ -332,7 +371,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -390,7 +429,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -403,13 +442,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
+                <a:tint val="80000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -432,7 +470,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,29 +479,29 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>stack</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>count</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>angular</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>babel</t>
         </is>
@@ -473,49 +511,49 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>cypress</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>emotion</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>graphql</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>javascript</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="B7" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
         <is>
           <t>jest</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>jotai</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>react</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -523,33 +561,153 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>jotai</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>playwright</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>react</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>recoil</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>redux</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>sass</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>storybook</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>svelte</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>tailwindcss</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
         <is>
           <t>typescript</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="B19" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>vite</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
         <is>
           <t>vue</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+      <c r="B21" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
         <is>
           <t>webpack</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>2</v>
+      <c r="B22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>zustand</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -563,7 +721,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,125 +730,335 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>stack</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>count</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>apache</t>
         </is>
       </c>
       <c r="B2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>django</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>docker</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>dynamodb</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>elasticsearch</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>express</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>fastapi</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>fastify</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>dynamodb</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>flask</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>gin</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>go</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>graphql</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>grpc</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>java</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>jest</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>kafka</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>koa</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>kotlin</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>kubernetes</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>mariadb</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>mocha</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>elasticsearch</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>go</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>grpc</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>jest</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>mongodb</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>mysql</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>nginx</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>kafka</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>kubernetes</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>php</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>postgresql</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>python</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>rabbitmq</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>redis</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>spring</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>swagger</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>mysql</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>python</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>redis</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>2</v>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>typeorm</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -704,7 +1072,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -713,15 +1081,65 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>stack</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>count</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>nimble</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>quick</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>swift</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>swiftui</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>uikit</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -735,7 +1153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -744,15 +1162,35 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>stack</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>count</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>fastlane</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>flutter</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -766,7 +1204,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -775,15 +1213,45 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>stack</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>count</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>java</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>kotlin</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>room</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -797,7 +1265,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -806,15 +1274,55 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>stack</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>count</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>blender</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>hlsl</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>maya</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>unity</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -837,25 +1345,25 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>stack</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>count</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>prometheus</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -869,7 +1377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -878,105 +1386,235 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>stack</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>count</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>ansible</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>aws</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B3" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>azure</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>datadog</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>docker</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>ec2</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>firebase</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>gcp</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>grafana</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>helm</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>istio</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>jenkins</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>kubernetes</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>loki</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>nginx</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>prometheus</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>pulumi</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>rds</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>s3</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>sentry</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>datadog</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>spinnaker</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>gcp</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>grafana</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>kubernetes</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>loki</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>prometheus</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>sentry</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>spinnaker</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>2</v>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>terraform</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
